--- a/XLOC Level 2.xlsx
+++ b/XLOC Level 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1778665-FD61-470C-8D7A-D9DB048F80F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1050B89A-3665-4739-B841-AA2171204082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
   </bookViews>
   <sheets>
     <sheet name="delete, add columns" sheetId="1" r:id="rId1"/>
@@ -686,50 +686,6 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600654</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28804</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809BBD78-1C00-EB07-FC2C-51C719B4072A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5831205" y="2988945"/>
-          <a:ext cx="6351849" cy="2754859"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -809,6 +765,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0633812-ECB5-A0F0-9AE6-68EBCF4BD987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="3057525"/>
+          <a:ext cx="6438095" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>

--- a/XLOC Level 2.xlsx
+++ b/XLOC Level 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1050B89A-3665-4739-B841-AA2171204082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405B740-7879-4357-9018-2EB51C43C1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
   </bookViews>
@@ -410,16 +410,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217832</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592621</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -434,8 +434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="571500"/>
-          <a:ext cx="3419475" cy="2819400"/>
+          <a:off x="2669484" y="2923761"/>
+          <a:ext cx="3439354" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -496,16 +496,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -520,7 +520,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457825" y="571500"/>
+          <a:off x="4162425" y="1285875"/>
           <a:ext cx="3419475" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -592,16 +592,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -616,7 +616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="952500"/>
+          <a:off x="762000" y="1314450"/>
           <a:ext cx="3419475" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -688,16 +688,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>159027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65847</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -712,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143750" y="142875"/>
-          <a:ext cx="3057525" cy="2819400"/>
+          <a:off x="6096000" y="159027"/>
+          <a:ext cx="2550630" cy="3717234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,16 +769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425726</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>84920</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171096</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158221</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -801,8 +801,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5229225" y="3057525"/>
-          <a:ext cx="6438095" cy="2828571"/>
+          <a:off x="1651552" y="3672094"/>
+          <a:ext cx="6474539" cy="2828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,16 +818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -842,8 +842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="228599"/>
-          <a:ext cx="3419475" cy="3800475"/>
+          <a:off x="870088" y="3143250"/>
+          <a:ext cx="6493151" cy="2265294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87AF9A0-E67A-449A-A5CF-3A8FDFDB2EAC}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1223,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCCBEF-26B2-4830-AC82-16680E575953}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED3C6E-B18C-4FF3-81B3-DA0CCACED1C8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1433,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CB5023-A105-460D-BB4C-6532685EFD39}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8B2A98-D968-4EE3-A9D0-1C25381D0EB4}">
   <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1593,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5E1C5-ABED-4099-8415-C3030EB8E585}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4F3264-147C-403A-9F69-70D13B63ABA1}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/XLOC Level 2.xlsx
+++ b/XLOC Level 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xloc raw vids\speedruns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405B740-7879-4357-9018-2EB51C43C1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D61447-C533-44EF-BB5B-FC31FCE55630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
   </bookViews>
@@ -669,7 +669,7 @@
               <a:effectLst/>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> down, into columns B:I</a:t>
+            <a:t> RIGHT, into columns B:I</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="3200">
             <a:solidFill>

--- a/XLOC Level 2.xlsx
+++ b/XLOC Level 2.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xloc raw vids\speedruns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D61447-C533-44EF-BB5B-FC31FCE55630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA26219-301C-4C37-8C11-C0FA90BAA7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="15600" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
   </bookViews>
   <sheets>
-    <sheet name="delete, add columns" sheetId="1" r:id="rId1"/>
-    <sheet name="delete, add rows" sheetId="2" r:id="rId2"/>
-    <sheet name="red boxes" sheetId="3" r:id="rId3"/>
-    <sheet name="copy down" sheetId="5" r:id="rId4"/>
-    <sheet name="copy right" sheetId="6" r:id="rId5"/>
-    <sheet name="sort and total" sheetId="7" r:id="rId6"/>
-    <sheet name="copy, paste special values" sheetId="8" r:id="rId7"/>
+    <sheet name="START" sheetId="9" r:id="rId1"/>
+    <sheet name="delete, add columns" sheetId="1" r:id="rId2"/>
+    <sheet name="delete, add rows" sheetId="2" r:id="rId3"/>
+    <sheet name="red boxes" sheetId="3" r:id="rId4"/>
+    <sheet name="copy down" sheetId="5" r:id="rId5"/>
+    <sheet name="copy right" sheetId="6" r:id="rId6"/>
+    <sheet name="sort and total" sheetId="7" r:id="rId7"/>
+    <sheet name="copy, paste special values" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,8 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode=";;;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -82,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +99,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -104,18 +124,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,14 +140,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,23 +171,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296465</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60722</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6C477F-842D-97B8-FF6F-1CA81DCBA446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0FAF8C-2213-4567-A77E-76FB01ACDE73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -185,8 +195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="561975"/>
-          <a:ext cx="3419475" cy="2819400"/>
+          <a:off x="3380184" y="615554"/>
+          <a:ext cx="3407569" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,23 +301,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BD35E2-B35F-4F6B-8577-7248D7E7266D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE0B1B2-8361-420A-9067-F0477E7C921C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -315,7 +325,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="2876550"/>
+          <a:off x="2168979" y="2354035"/>
           <a:ext cx="3419475" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -426,7 +436,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD15D99-39EC-430A-ADE7-3422BC5E31C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B945D03-A336-42E8-A5EC-EAB394D4BB98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -434,8 +444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2669484" y="2923761"/>
-          <a:ext cx="3439354" cy="2819400"/>
+          <a:off x="2656232" y="2923761"/>
+          <a:ext cx="3422789" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -496,16 +506,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>324835</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86710</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -520,8 +530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162425" y="1285875"/>
-          <a:ext cx="3419475" cy="2819400"/>
+          <a:off x="2768490" y="2299138"/>
+          <a:ext cx="3427358" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,16 +602,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>424962</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188302</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>130419</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -616,8 +626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1314450"/>
-          <a:ext cx="3419475" cy="2819400"/>
+          <a:off x="1641231" y="1311519"/>
+          <a:ext cx="3412148" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,7 +679,7 @@
               <a:effectLst/>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> RIGHT, into columns B:I</a:t>
+            <a:t> right, into columns B:I</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="3200">
             <a:solidFill>
@@ -701,10 +711,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F17031-31F7-477A-AC43-0BEF22D933FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2F6FDB-7D36-4CF3-8B77-F00236BBC2FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -712,8 +722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="159027"/>
-          <a:ext cx="2550630" cy="3717234"/>
+          <a:off x="6066183" y="159027"/>
+          <a:ext cx="2534064" cy="3717234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,22 +780,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>425726</xdr:colOff>
+      <xdr:colOff>139976</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>52594</xdr:rowOff>
+      <xdr:rowOff>128794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158221</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482071</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>23665</xdr:rowOff>
+      <xdr:rowOff>99865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0633812-ECB5-A0F0-9AE6-68EBCF4BD987}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3335EA2D-E480-4567-AF47-4FBB2AF6DD03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,8 +811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1651552" y="3672094"/>
-          <a:ext cx="6474539" cy="2828571"/>
+          <a:off x="1359176" y="3748294"/>
+          <a:ext cx="6438095" cy="2828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,16 +828,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -842,8 +852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="870088" y="3143250"/>
-          <a:ext cx="6493151" cy="2265294"/>
+          <a:off x="6810375" y="228599"/>
+          <a:ext cx="3419475" cy="3800475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,20 +1208,726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C55DA6-4D01-4FB6-9574-A410444C4F7B}">
+  <dimension ref="C1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L7" si="0">ROW()*COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C9" si="1">ROW()*COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H8" si="2">ROW()*COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="I3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="J3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>30</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J9" si="3">ROW()*COLUMN()</f>
+        <v>40</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>36</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>42</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>48</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>36</v>
+      </c>
+      <c r="E9" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>45</v>
+      </c>
+      <c r="F9" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>54</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>72</v>
+      </c>
+      <c r="I9" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>81</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6">
+        <f t="shared" ref="I12:L25" si="4">ROW()*COLUMN()</f>
+        <v>108</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6">
+        <f t="shared" ref="E16:H20" si="5">ROW()*COLUMN()</f>
+        <v>80</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E16:K20 I12:I15 J14:J15 L18:L19 I21:K21 I22:J23 I24:I25 C4:C9 D9:F9 F6:F8 E6 H3:H9 I9:J9 J3:J8 I3 L2:L7 L9 C3:F3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87AF9A0-E67A-449A-A5CF-3A8FDFDB2EAC}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="8.85546875" style="3"/>
-    <col min="5" max="5" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,11 +1935,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCCBEF-26B2-4830-AC82-16680E575953}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1231,198 +1947,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED3C6E-B18C-4FF3-81B3-DA0CCACED1C8}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
+    <row r="11" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1430,6 +1967,188 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED3C6E-B18C-4FF3-81B3-DA0CCACED1C8}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CB5023-A105-460D-BB4C-6532685EFD39}">
   <dimension ref="B2:F11"/>
   <sheetViews>
@@ -1440,84 +2159,84 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8B2A98-D968-4EE3-A9D0-1C25381D0EB4}">
   <dimension ref="B2:I5"/>
   <sheetViews>
@@ -1536,52 +2255,52 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,11 +2308,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5E1C5-ABED-4099-8415-C3030EB8E585}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1768,6 +2487,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H13">
+    <sortCondition descending="1" ref="H2:H13"/>
+  </sortState>
   <conditionalFormatting sqref="B2:H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1785,11 +2507,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4F3264-147C-403A-9F69-70D13B63ABA1}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1806,14 +2528,14 @@
       <c r="D2">
         <v>614.70345359506246</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1826,14 +2548,14 @@
       <c r="D4">
         <v>459.57942113555993</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1846,14 +2568,14 @@
         <f>C6+E6</f>
         <v>370.32859582597854</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -1866,14 +2588,14 @@
       <c r="D8">
         <v>354.87396076338274</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -1886,14 +2608,14 @@
         <f>C10+E10</f>
         <v>257.26605160464101</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -1905,9 +2627,9 @@
       <c r="D12">
         <v>484.58346604052292</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
